--- a/python/data.xlsx
+++ b/python/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gandhi/GandhiMain/700-Apps/envizi-dataflow-s3-udc/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gandhi/GandhiMain/700-Apps/envizi-dataflow-sending-udc-excel-to-s3-blog/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184C267E-D086-9749-AE6D-66E088C72A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4DBE0A-9D48-AA4A-8630-61F8D037D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,13 +121,13 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>IBMCloud_Active Hosts</t>
-  </si>
-  <si>
     <t>Turbonomic</t>
   </si>
   <si>
     <t>G1-IBMCloud</t>
+  </si>
+  <si>
+    <t>IBMCloud_Energy Consumption</t>
   </si>
 </sst>
 </file>
@@ -3671,23 +3671,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7C77F2-C9BF-7648-A7B3-025A41D54B05}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -3740,16 +3740,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5">
         <v>45201</v>
